--- a/biology/Botanique/Zanthoxylum_armatum/Zanthoxylum_armatum.xlsx
+++ b/biology/Botanique/Zanthoxylum_armatum/Zanthoxylum_armatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Zanthoxylum armatum , est une espèce d'arbuste appartenant à la famille des rutacées. Le nom vernaculaire de ce poivre est  Timut en Français, alors que pour les Népalais, d'où provient cette baie, on utilise le nom de Timur. Que l'on prononce « Timourrrr »[1].
+Zanthoxylum armatum , est une espèce d'arbuste appartenant à la famille des rutacées. Le nom vernaculaire de ce poivre est  Timut en Français, alors que pour les Népalais, d'où provient cette baie, on utilise le nom de Timur. Que l'on prononce « Timourrrr ».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou petit arbre a feuilles caduques, qui peut atteindre  5  m. Les  rameaux et le dessous des feuilles sur la nervure médiane, sont généralement dotés d'épines. Les jeunes rameaux glabres, les inflorescences et  les rachis pubescents sont de couleur rouges. Les feuilles ont  3-9 (ou 11) folioles;  opposées, lancéolés , ovales ou elliptiques, base atténuée à largement cunéiforme, apex aigu à acuminé. Les inflorescences sont terminales sur de courts rameaux latéraux et parfois axillaires, de 1 à 7 cm de long, avec moins de 30 fleurs. Le fruit en follicules est généralement violet ou rouge. Graines brun noirâtre, de 3-4 mm de diamètre. Fl. avril-mai, fr. Août-octobre.
 </t>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans de nombreux habitats, en dessous de 3100 mètres dans l'Anhui, le Fujian, le Gansu, le Guangdong, le Guangxi, le Guizhou, le Henan, le Hubei, le Hunan, le Jiangsu, le Jiangxi, le Shaanxi, le Shandong, le Shanxi, le Sichuan, le Xizang, le Yunnan, le Zhejiang en Chine.
-Mais aussi au Bangladesh, Taiwan, au Bhoutan, en Inde, en Indonésie, au Japon (y compris les Îles Ryūkyū), au Cachemire, en Corée, au Laos, en Birmanie, au Népal, au Pakistan, aux Philippines, en Thaïlande et au Viêt Nam [2].
+Mais aussi au Bangladesh, Taiwan, au Bhoutan, en Inde, en Indonésie, au Japon (y compris les Îles Ryūkyū), au Cachemire, en Corée, au Laos, en Birmanie, au Népal, au Pakistan, aux Philippines, en Thaïlande et au Viêt Nam .
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum armatum a été décrit par Augustin Pyrame de Candolle et publié dans Prodromus Systematis Naturalis Regni Vegetabilis 1: 727, en 1824 .
 Variétés acceptées
@@ -594,10 +612,10 @@
 Zanthoxylum bungei 				Hance  				(1866), nom. illeg.
 Zanthoxylum hostile 				Wall.  				(1829), not validly publ.
 Zanthoxylum planispinum 			Siebold &amp; Zucc.  		(1845)
-Zanthoxylum violaceum 			Wall. 				(1829), not validly publ[3].
+Zanthoxylum violaceum 			Wall. 				(1829), not validly publ.
 pour variété ferrugineum
 Zanthoxylum alatum f. ferrugineum	 Rehder &amp; E.H.Wilson 		 (1914)
-Zanthoxylum planispinum f. ferrugineu   (Rehder &amp; E.H.Wilson) C.C.Huang  	(1957) [4].
+Zanthoxylum planispinum f. ferrugineu   (Rehder &amp; E.H.Wilson) C.C.Huang  	(1957) .
 </t>
         </is>
       </c>
@@ -626,10 +644,12 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-↑ [1] au népal le Timut est Timur 
+↑  au népal le Timut est Timur 
 ↑ Zanthoxylum armatum en Flora de China
 ↑ (en) Référence POWO :    Zanthoxylum armatum var. ferrugineum   (Rehder &amp; E.H.Wilson) C.C.Huang (consulté le 10 septembre 2023)
 ↑ (en) Référence POWO :    Zanthoxylum armatum var. armatum    (consulté le 10 septembre 2023)
